--- a/1_php/原生php/php语法.xlsx
+++ b/1_php/原生php/php语法.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="3795" windowHeight="2550" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="重载" sheetId="1" r:id="rId1"/>
     <sheet name="运行环境" sheetId="2" r:id="rId2"/>
+    <sheet name="类或对象" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>重载</t>
   </si>
@@ -162,6 +163,39 @@
   </si>
   <si>
     <t>如何升级redis</t>
+  </si>
+  <si>
+    <t>public/var</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>方法</t>
   </si>
 </sst>
 </file>
@@ -169,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -202,8 +236,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +304,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,58 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -286,61 +373,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,55 +395,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,127 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,17 +667,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,15 +696,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +730,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -733,154 +767,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1251,90 +1288,90 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="30.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="72.375" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="72.375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1353,390 +1390,390 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.25" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9" style="3"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1749,4 +1786,111 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>